--- a/Parbaudes_lapu_versijas_jautajumi.xlsx
+++ b/Parbaudes_lapu_versijas_jautajumi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\cfla_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0ED7EB-B52E-4CC7-BA84-87B760630EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5591662D-27A4-4780-94BF-1B599817B36F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="209">
   <si>
     <t>09.12.2019.</t>
   </si>
@@ -307,6 +307,351 @@
   </si>
   <si>
     <t>nosacījums</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>35.6</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>35.10</t>
+  </si>
+  <si>
+    <t>35.11</t>
+  </si>
+  <si>
+    <t>35.12</t>
+  </si>
+  <si>
+    <t>35.13</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>37.3</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>37.6</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>37.9</t>
+  </si>
+  <si>
+    <t>37.11</t>
+  </si>
+  <si>
+    <t>37.12</t>
+  </si>
+  <si>
+    <t>37.13</t>
+  </si>
+  <si>
+    <t>37.14</t>
+  </si>
+  <si>
+    <t>37.15</t>
+  </si>
+  <si>
+    <t>37.16</t>
+  </si>
+  <si>
+    <t>37.17</t>
+  </si>
+  <si>
+    <t>37.18</t>
+  </si>
+  <si>
+    <t>37.19</t>
+  </si>
+  <si>
+    <t>37.20</t>
+  </si>
+  <si>
+    <t>37.21</t>
+  </si>
+  <si>
+    <t>37.22</t>
+  </si>
+  <si>
+    <t>37.23</t>
+  </si>
+  <si>
+    <t>37.24</t>
+  </si>
+  <si>
+    <t>37.25</t>
+  </si>
+  <si>
+    <t>37.26</t>
+  </si>
+  <si>
+    <t>37.27</t>
+  </si>
+  <si>
+    <t>37.28</t>
+  </si>
+  <si>
+    <t>37.29</t>
+  </si>
+  <si>
+    <t>37.30</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>37.32</t>
+  </si>
+  <si>
+    <t>37.33</t>
+  </si>
+  <si>
+    <t>37.34</t>
+  </si>
+  <si>
+    <t>37.35</t>
+  </si>
+  <si>
+    <t>37.36</t>
+  </si>
+  <si>
+    <t>37.37</t>
+  </si>
+  <si>
+    <t>37.38</t>
+  </si>
+  <si>
+    <t>37.39</t>
+  </si>
+  <si>
+    <t>37.40</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>38.4</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>38.9</t>
+  </si>
+  <si>
+    <t>38.10</t>
+  </si>
+  <si>
+    <t>38.11</t>
+  </si>
+  <si>
+    <t>38.12</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49.1</t>
+  </si>
+  <si>
+    <t>49.2</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>49.4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
 </sst>
 </file>
@@ -637,18 +982,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,16 +1003,16 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -720,6 +1065,9 @@
       <c r="B8" s="2">
         <v>8</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -728,6 +1076,9 @@
       <c r="B9" s="2">
         <v>9</v>
       </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -736,6 +1087,9 @@
       <c r="B10" s="2">
         <v>10</v>
       </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -744,6 +1098,9 @@
       <c r="B11" s="2">
         <v>10.1</v>
       </c>
+      <c r="C11" s="2">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -752,6 +1109,9 @@
       <c r="B12" s="2">
         <v>10.199999999999999</v>
       </c>
+      <c r="C12" s="2">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -760,6 +1120,9 @@
       <c r="B13" s="2">
         <v>10.3</v>
       </c>
+      <c r="C13" s="2">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -768,6 +1131,9 @@
       <c r="B14" s="2">
         <v>11</v>
       </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -776,6 +1142,9 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -784,1120 +1153,1549 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
       <c r="B34" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
       <c r="B36" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35.1</v>
       </c>
       <c r="B40" s="2">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>35.200000000000003</v>
       </c>
       <c r="B41" s="2">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>35.299999999999997</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>35.4</v>
       </c>
       <c r="B43" s="2">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35.5</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>35.6</v>
       </c>
       <c r="B45" s="2">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>35.700000000000003</v>
       </c>
       <c r="B46" s="2">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>35.799999999999997</v>
       </c>
       <c r="B47" s="2">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36</v>
       </c>
       <c r="B48" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>37</v>
       </c>
       <c r="B49" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>37.1</v>
       </c>
       <c r="B50" s="2">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>37.200000000000003</v>
       </c>
       <c r="B51" s="2">
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>37.299999999999997</v>
       </c>
       <c r="B52" s="2">
         <v>40.299999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>37.4</v>
       </c>
       <c r="B53" s="2">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>37.5</v>
       </c>
       <c r="B54" s="2">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>37.6</v>
       </c>
       <c r="B55" s="2">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>37.700000000000003</v>
       </c>
       <c r="B56" s="2">
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>37.799999999999997</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>37.9</v>
       </c>
       <c r="B58" s="2">
         <v>40.11</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="2">
         <v>40.119999999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>37.11</v>
       </c>
       <c r="B60" s="2">
         <v>40.130000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>37.119999999999997</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>37.130000000000003</v>
       </c>
       <c r="B62" s="2">
         <v>40.14</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>38</v>
       </c>
       <c r="B63" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>38.1</v>
       </c>
       <c r="B64" s="2">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>38.200000000000003</v>
       </c>
       <c r="B65" s="2">
         <v>41.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>38.299999999999997</v>
       </c>
       <c r="B66" s="2">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>38.4</v>
       </c>
       <c r="B67" s="2">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>38.5</v>
       </c>
       <c r="B68" s="2">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>38.6</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>38.700000000000003</v>
       </c>
       <c r="B70" s="2">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>38.799999999999997</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>38.9</v>
       </c>
       <c r="B72" s="2">
         <v>41.11</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39.1</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39.200000000000003</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39.299999999999997</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39.4</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39.5</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39.6</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39.700000000000003</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39.799999999999997</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39.9</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39.11</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39.119999999999997</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39.130000000000003</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39.14</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39.15</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39.159999999999997</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39.17</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39.18</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39.19</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39.21</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39.22</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39.229999999999997</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39.24</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39.25</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39.26</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39.270000000000003</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39.28</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39.29</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39.31</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39.32</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>39.33</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>39.340000000000003</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>39.35</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>39.36</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>39.369999999999997</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>39.380000000000003</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>39.39</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>40</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>40.1</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40.200000000000003</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>40.299999999999997</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>40.4</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>40.5</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>40.6</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>40.700000000000003</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>40.9</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>40.11</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>40.119999999999997</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>46</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>47</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>48</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>49</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>50</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>51</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>51.1</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>51.2</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>51.3</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>51.4</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>52</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>53</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>54</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>56</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>57</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>58</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>59</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>60</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>61</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>62</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>63</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>64</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>65</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>66</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>67</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>68</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Parbaudes_lapu_versijas_jautajumi.xlsx
+++ b/Parbaudes_lapu_versijas_jautajumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5591662D-27A4-4780-94BF-1B599817B36F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506534F9-9A42-40BD-88EC-ACB1C0D9F703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="210">
   <si>
     <t>09.12.2019.</t>
   </si>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>66</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -982,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +996,7 @@
     <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,6 +1071,9 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1079,6 +1085,9 @@
       <c r="C9" s="2">
         <v>7</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1090,6 +1099,9 @@
       <c r="C10" s="2">
         <v>8</v>
       </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1101,6 +1113,9 @@
       <c r="C11" s="2">
         <v>8.1</v>
       </c>
+      <c r="D11" s="2">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1112,6 +1127,9 @@
       <c r="C12" s="2">
         <v>8.1999999999999993</v>
       </c>
+      <c r="D12" s="2">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1123,6 +1141,9 @@
       <c r="C13" s="2">
         <v>8.3000000000000007</v>
       </c>
+      <c r="D13" s="2">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1134,6 +1155,9 @@
       <c r="C14" s="2">
         <v>9</v>
       </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1145,6 +1169,9 @@
       <c r="C15" s="2">
         <v>10</v>
       </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1156,8 +1183,11 @@
       <c r="C16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1167,64 +1197,88 @@
       <c r="C17" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1234,8 +1288,11 @@
       <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1245,8 +1302,11 @@
       <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1256,8 +1316,11 @@
       <c r="C27" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1267,8 +1330,11 @@
       <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1278,8 +1344,11 @@
       <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1289,8 +1358,11 @@
       <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1300,8 +1372,11 @@
       <c r="C31" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1311,8 +1386,11 @@
       <c r="C32" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -1322,8 +1400,11 @@
       <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -1333,8 +1414,11 @@
       <c r="C34" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1344,8 +1428,11 @@
       <c r="C35" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -1355,8 +1442,11 @@
       <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -1366,8 +1456,11 @@
       <c r="C37" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -1377,8 +1470,11 @@
       <c r="C38" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -1388,8 +1484,11 @@
       <c r="C39" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35.1</v>
       </c>
@@ -1399,8 +1498,11 @@
       <c r="C40" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>35.200000000000003</v>
       </c>
@@ -1410,8 +1512,11 @@
       <c r="C41" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>35.299999999999997</v>
       </c>
@@ -1421,8 +1526,11 @@
       <c r="C42" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>35.4</v>
       </c>
@@ -1432,8 +1540,11 @@
       <c r="C43" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35.5</v>
       </c>
@@ -1443,8 +1554,11 @@
       <c r="C44" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>35.6</v>
       </c>
@@ -1454,8 +1568,11 @@
       <c r="C45" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>35.700000000000003</v>
       </c>
@@ -1465,8 +1582,11 @@
       <c r="C46" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>35.799999999999997</v>
       </c>
@@ -1476,8 +1596,11 @@
       <c r="C47" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36</v>
       </c>
@@ -1487,8 +1610,11 @@
       <c r="C48" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>37</v>
       </c>
@@ -1498,8 +1624,11 @@
       <c r="C49" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>37.1</v>
       </c>
@@ -1509,8 +1638,11 @@
       <c r="C50" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>37.200000000000003</v>
       </c>
@@ -1520,8 +1652,11 @@
       <c r="C51" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>37.299999999999997</v>
       </c>
@@ -1531,8 +1666,11 @@
       <c r="C52" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>37.4</v>
       </c>
@@ -1542,8 +1680,11 @@
       <c r="C53" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>37.5</v>
       </c>
@@ -1553,8 +1694,11 @@
       <c r="C54" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>37.6</v>
       </c>
@@ -1564,8 +1708,11 @@
       <c r="C55" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>37.700000000000003</v>
       </c>
@@ -1575,8 +1722,11 @@
       <c r="C56" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>37.799999999999997</v>
       </c>
@@ -1586,8 +1736,11 @@
       <c r="C57" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>37.9</v>
       </c>
@@ -1597,8 +1750,11 @@
       <c r="C58" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -1608,8 +1764,11 @@
       <c r="C59" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>37.11</v>
       </c>
@@ -1619,8 +1778,11 @@
       <c r="C60" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>37.119999999999997</v>
       </c>
@@ -1630,8 +1792,11 @@
       <c r="C61" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>37.130000000000003</v>
       </c>
@@ -1641,8 +1806,11 @@
       <c r="C62" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>38</v>
       </c>
@@ -1652,8 +1820,11 @@
       <c r="C63" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>38.1</v>
       </c>
@@ -1663,8 +1834,11 @@
       <c r="C64" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>38.200000000000003</v>
       </c>
@@ -1674,8 +1848,11 @@
       <c r="C65" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>38.299999999999997</v>
       </c>
@@ -1685,8 +1862,11 @@
       <c r="C66" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>38.4</v>
       </c>
@@ -1696,8 +1876,11 @@
       <c r="C67" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>38.5</v>
       </c>
@@ -1707,8 +1890,11 @@
       <c r="C68" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>38.6</v>
       </c>
@@ -1718,8 +1904,11 @@
       <c r="C69" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>38.700000000000003</v>
       </c>
@@ -1729,8 +1918,11 @@
       <c r="C70" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1740,8 +1932,11 @@
       <c r="C71" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>38.9</v>
       </c>
@@ -1751,8 +1946,11 @@
       <c r="C72" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39</v>
       </c>
@@ -1762,8 +1960,11 @@
       <c r="C73" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39.1</v>
       </c>
@@ -1773,8 +1974,11 @@
       <c r="C74" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39.200000000000003</v>
       </c>
@@ -1784,8 +1988,11 @@
       <c r="C75" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39.299999999999997</v>
       </c>
@@ -1795,8 +2002,11 @@
       <c r="C76" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39.4</v>
       </c>
@@ -1806,8 +2016,11 @@
       <c r="C77" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39.5</v>
       </c>
@@ -1817,8 +2030,11 @@
       <c r="C78" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39.6</v>
       </c>
@@ -1828,8 +2044,11 @@
       <c r="C79" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39.700000000000003</v>
       </c>
@@ -1839,8 +2058,11 @@
       <c r="C80" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39.799999999999997</v>
       </c>
@@ -1850,8 +2072,11 @@
       <c r="C81" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39.9</v>
       </c>
@@ -1861,8 +2086,11 @@
       <c r="C82" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -1872,8 +2100,11 @@
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39.11</v>
       </c>
@@ -1883,8 +2114,11 @@
       <c r="C84" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39.119999999999997</v>
       </c>
@@ -1894,8 +2128,11 @@
       <c r="C85" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39.130000000000003</v>
       </c>
@@ -1905,8 +2142,11 @@
       <c r="C86" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39.14</v>
       </c>
@@ -1916,8 +2156,11 @@
       <c r="C87" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39.15</v>
       </c>
@@ -1927,8 +2170,11 @@
       <c r="C88" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39.159999999999997</v>
       </c>
@@ -1938,8 +2184,11 @@
       <c r="C89" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39.17</v>
       </c>
@@ -1949,8 +2198,11 @@
       <c r="C90" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39.18</v>
       </c>
@@ -1960,8 +2212,11 @@
       <c r="C91" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39.19</v>
       </c>
@@ -1971,8 +2226,11 @@
       <c r="C92" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -1982,8 +2240,11 @@
       <c r="C93" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39.21</v>
       </c>
@@ -1993,8 +2254,11 @@
       <c r="C94" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39.22</v>
       </c>
@@ -2004,8 +2268,11 @@
       <c r="C95" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39.229999999999997</v>
       </c>
@@ -2015,8 +2282,11 @@
       <c r="C96" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39.24</v>
       </c>
@@ -2026,8 +2296,11 @@
       <c r="C97" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39.25</v>
       </c>
@@ -2037,8 +2310,11 @@
       <c r="C98" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39.26</v>
       </c>
@@ -2048,8 +2324,11 @@
       <c r="C99" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39.270000000000003</v>
       </c>
@@ -2059,8 +2338,11 @@
       <c r="C100" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39.28</v>
       </c>
@@ -2070,8 +2352,11 @@
       <c r="C101" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39.29</v>
       </c>
@@ -2081,8 +2366,11 @@
       <c r="C102" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -2092,8 +2380,11 @@
       <c r="C103" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39.31</v>
       </c>
@@ -2103,8 +2394,11 @@
       <c r="C104" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39.32</v>
       </c>
@@ -2114,8 +2408,11 @@
       <c r="C105" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>39.33</v>
       </c>
@@ -2125,8 +2422,11 @@
       <c r="C106" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>39.340000000000003</v>
       </c>
@@ -2136,8 +2436,11 @@
       <c r="C107" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>39.35</v>
       </c>
@@ -2147,8 +2450,11 @@
       <c r="C108" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>39.36</v>
       </c>
@@ -2158,8 +2464,11 @@
       <c r="C109" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>39.369999999999997</v>
       </c>
@@ -2169,8 +2478,11 @@
       <c r="C110" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>39.380000000000003</v>
       </c>
@@ -2180,8 +2492,11 @@
       <c r="C111" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>39.39</v>
       </c>
@@ -2191,8 +2506,11 @@
       <c r="C112" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2202,8 +2520,11 @@
       <c r="C113" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>40</v>
       </c>
@@ -2213,8 +2534,11 @@
       <c r="C114" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>40.1</v>
       </c>
@@ -2224,8 +2548,11 @@
       <c r="C115" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40.200000000000003</v>
       </c>
@@ -2235,8 +2562,11 @@
       <c r="C116" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>40.299999999999997</v>
       </c>
@@ -2246,8 +2576,11 @@
       <c r="C117" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>40.4</v>
       </c>
@@ -2257,8 +2590,11 @@
       <c r="C118" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>40.5</v>
       </c>
@@ -2268,8 +2604,11 @@
       <c r="C119" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>40.6</v>
       </c>
@@ -2279,8 +2618,11 @@
       <c r="C120" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>40.700000000000003</v>
       </c>
@@ -2290,8 +2632,11 @@
       <c r="C121" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40.799999999999997</v>
       </c>
@@ -2301,8 +2646,11 @@
       <c r="C122" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>40.9</v>
       </c>
@@ -2312,8 +2660,11 @@
       <c r="C123" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>54</v>
       </c>
@@ -2323,8 +2674,11 @@
       <c r="C124" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>40.11</v>
       </c>
@@ -2334,8 +2688,11 @@
       <c r="C125" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>40.119999999999997</v>
       </c>
@@ -2345,8 +2702,11 @@
       <c r="C126" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41</v>
       </c>
@@ -2356,8 +2716,11 @@
       <c r="C127" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42</v>
       </c>
@@ -2367,8 +2730,11 @@
       <c r="C128" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43</v>
       </c>
@@ -2378,8 +2744,11 @@
       <c r="C129" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44</v>
       </c>
@@ -2389,8 +2758,11 @@
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45</v>
       </c>
@@ -2400,8 +2772,11 @@
       <c r="C131" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>46</v>
       </c>
@@ -2411,8 +2786,11 @@
       <c r="C132" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>47</v>
       </c>
@@ -2422,8 +2800,11 @@
       <c r="C133" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>48</v>
       </c>
@@ -2433,8 +2814,11 @@
       <c r="C134" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>49</v>
       </c>
@@ -2444,8 +2828,11 @@
       <c r="C135" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>50</v>
       </c>
@@ -2455,8 +2842,11 @@
       <c r="C136" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>51</v>
       </c>
@@ -2466,8 +2856,11 @@
       <c r="C137" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>51.1</v>
       </c>
@@ -2477,8 +2870,11 @@
       <c r="C138" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>51.2</v>
       </c>
@@ -2488,8 +2884,11 @@
       <c r="C139" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>51.3</v>
       </c>
@@ -2499,8 +2898,11 @@
       <c r="C140" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>51.4</v>
       </c>
@@ -2510,8 +2912,11 @@
       <c r="C141" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>52</v>
       </c>
@@ -2521,8 +2926,11 @@
       <c r="C142" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>53</v>
       </c>
@@ -2532,8 +2940,11 @@
       <c r="C143" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>54</v>
       </c>
@@ -2543,8 +2954,11 @@
       <c r="C144" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>55</v>
       </c>
@@ -2554,8 +2968,11 @@
       <c r="C145" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>56</v>
       </c>
@@ -2565,8 +2982,11 @@
       <c r="C146" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>57</v>
       </c>
@@ -2576,8 +2996,11 @@
       <c r="C147" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>58</v>
       </c>
@@ -2587,8 +3010,11 @@
       <c r="C148" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>59</v>
       </c>
@@ -2598,8 +3024,11 @@
       <c r="C149" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>60</v>
       </c>
@@ -2609,8 +3038,11 @@
       <c r="C150" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>61</v>
       </c>
@@ -2620,8 +3052,11 @@
       <c r="C151" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>62</v>
       </c>
@@ -2631,8 +3066,11 @@
       <c r="C152" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>63</v>
       </c>
@@ -2642,8 +3080,11 @@
       <c r="C153" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>64</v>
       </c>
@@ -2653,8 +3094,11 @@
       <c r="C154" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>65</v>
       </c>
@@ -2664,8 +3108,11 @@
       <c r="C155" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>66</v>
       </c>
@@ -2675,8 +3122,11 @@
       <c r="C156" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>67</v>
       </c>
@@ -2686,8 +3136,11 @@
       <c r="C157" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>68</v>
       </c>
@@ -2695,6 +3148,9 @@
         <v>67</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>208</v>
       </c>
     </row>

--- a/Parbaudes_lapu_versijas_jautajumi.xlsx
+++ b/Parbaudes_lapu_versijas_jautajumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506534F9-9A42-40BD-88EC-ACB1C0D9F703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B92364-5B68-4143-AC10-DC06AAAC8A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="212">
   <si>
     <t>09.12.2019.</t>
   </si>
@@ -655,6 +655,12 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>37.43</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -985,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,6 +1080,9 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1088,6 +1097,9 @@
       <c r="D9" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1102,6 +1114,9 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1116,6 +1131,9 @@
       <c r="D11" s="2">
         <v>8.1</v>
       </c>
+      <c r="E11" s="2">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1130,6 +1148,9 @@
       <c r="D12" s="2">
         <v>8.1999999999999993</v>
       </c>
+      <c r="E12" s="2">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1144,6 +1165,9 @@
       <c r="D13" s="2">
         <v>8.3000000000000007</v>
       </c>
+      <c r="E13" s="2">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1158,6 +1182,9 @@
       <c r="D14" s="2">
         <v>9</v>
       </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1172,6 +1199,9 @@
       <c r="D15" s="2">
         <v>10</v>
       </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1186,8 +1216,11 @@
       <c r="D16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1200,8 +1233,11 @@
       <c r="D17" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1211,8 +1247,11 @@
       <c r="D18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1222,8 +1261,11 @@
       <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1233,8 +1275,11 @@
       <c r="D20" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1244,8 +1289,11 @@
       <c r="D21" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1255,8 +1303,11 @@
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1266,8 +1317,11 @@
       <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1277,8 +1331,11 @@
       <c r="D24" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1291,8 +1348,11 @@
       <c r="D25" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1305,8 +1365,11 @@
       <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1319,8 +1382,11 @@
       <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1333,8 +1399,11 @@
       <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1347,8 +1416,11 @@
       <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1361,8 +1433,11 @@
       <c r="D30" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1375,8 +1450,11 @@
       <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1389,8 +1467,11 @@
       <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -1403,8 +1484,11 @@
       <c r="D33" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -1417,8 +1501,11 @@
       <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1431,8 +1518,11 @@
       <c r="D35" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -1445,8 +1535,11 @@
       <c r="D36" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -1459,8 +1552,11 @@
       <c r="D37" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -1473,8 +1569,11 @@
       <c r="D38" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -1487,8 +1586,11 @@
       <c r="D39" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35.1</v>
       </c>
@@ -1501,8 +1603,11 @@
       <c r="D40" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>35.200000000000003</v>
       </c>
@@ -1515,8 +1620,11 @@
       <c r="D41" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>35.299999999999997</v>
       </c>
@@ -1529,8 +1637,11 @@
       <c r="D42" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>35.4</v>
       </c>
@@ -1543,8 +1654,11 @@
       <c r="D43" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35.5</v>
       </c>
@@ -1557,8 +1671,11 @@
       <c r="D44" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>35.6</v>
       </c>
@@ -1571,8 +1688,11 @@
       <c r="D45" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>35.700000000000003</v>
       </c>
@@ -1585,8 +1705,11 @@
       <c r="D46" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>35.799999999999997</v>
       </c>
@@ -1599,8 +1722,11 @@
       <c r="D47" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36</v>
       </c>
@@ -1613,8 +1739,11 @@
       <c r="D48" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>37</v>
       </c>
@@ -1627,8 +1756,11 @@
       <c r="D49" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>37.1</v>
       </c>
@@ -1641,8 +1773,11 @@
       <c r="D50" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>37.200000000000003</v>
       </c>
@@ -1655,8 +1790,11 @@
       <c r="D51" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>37.299999999999997</v>
       </c>
@@ -1669,8 +1807,11 @@
       <c r="D52" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>37.4</v>
       </c>
@@ -1683,8 +1824,11 @@
       <c r="D53" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>37.5</v>
       </c>
@@ -1697,8 +1841,11 @@
       <c r="D54" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>37.6</v>
       </c>
@@ -1711,8 +1858,11 @@
       <c r="D55" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>37.700000000000003</v>
       </c>
@@ -1725,8 +1875,11 @@
       <c r="D56" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>37.799999999999997</v>
       </c>
@@ -1739,8 +1892,11 @@
       <c r="D57" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>37.9</v>
       </c>
@@ -1753,8 +1909,11 @@
       <c r="D58" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -1767,8 +1926,11 @@
       <c r="D59" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>37.11</v>
       </c>
@@ -1781,8 +1943,11 @@
       <c r="D60" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>37.119999999999997</v>
       </c>
@@ -1795,8 +1960,11 @@
       <c r="D61" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>37.130000000000003</v>
       </c>
@@ -1809,8 +1977,11 @@
       <c r="D62" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>38</v>
       </c>
@@ -1823,8 +1994,11 @@
       <c r="D63" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>38.1</v>
       </c>
@@ -1837,8 +2011,11 @@
       <c r="D64" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>38.200000000000003</v>
       </c>
@@ -1851,8 +2028,11 @@
       <c r="D65" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>38.299999999999997</v>
       </c>
@@ -1865,8 +2045,11 @@
       <c r="D66" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>38.4</v>
       </c>
@@ -1879,8 +2062,11 @@
       <c r="D67" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>38.5</v>
       </c>
@@ -1893,8 +2079,11 @@
       <c r="D68" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>38.6</v>
       </c>
@@ -1907,8 +2096,11 @@
       <c r="D69" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>38.700000000000003</v>
       </c>
@@ -1921,8 +2113,11 @@
       <c r="D70" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1935,8 +2130,11 @@
       <c r="D71" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>38.9</v>
       </c>
@@ -1949,8 +2147,11 @@
       <c r="D72" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39</v>
       </c>
@@ -1963,8 +2164,11 @@
       <c r="D73" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39.1</v>
       </c>
@@ -1977,8 +2181,11 @@
       <c r="D74" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39.200000000000003</v>
       </c>
@@ -1991,8 +2198,11 @@
       <c r="D75" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39.299999999999997</v>
       </c>
@@ -2005,8 +2215,11 @@
       <c r="D76" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39.4</v>
       </c>
@@ -2019,8 +2232,11 @@
       <c r="D77" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39.5</v>
       </c>
@@ -2033,8 +2249,11 @@
       <c r="D78" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39.6</v>
       </c>
@@ -2047,8 +2266,11 @@
       <c r="D79" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39.700000000000003</v>
       </c>
@@ -2061,8 +2283,11 @@
       <c r="D80" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39.799999999999997</v>
       </c>
@@ -2075,8 +2300,11 @@
       <c r="D81" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39.9</v>
       </c>
@@ -2089,8 +2317,11 @@
       <c r="D82" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -2103,8 +2334,11 @@
       <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39.11</v>
       </c>
@@ -2117,8 +2351,11 @@
       <c r="D84" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39.119999999999997</v>
       </c>
@@ -2131,8 +2368,11 @@
       <c r="D85" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39.130000000000003</v>
       </c>
@@ -2145,8 +2385,11 @@
       <c r="D86" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39.14</v>
       </c>
@@ -2159,8 +2402,11 @@
       <c r="D87" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39.15</v>
       </c>
@@ -2173,8 +2419,11 @@
       <c r="D88" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39.159999999999997</v>
       </c>
@@ -2187,8 +2436,11 @@
       <c r="D89" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39.17</v>
       </c>
@@ -2201,8 +2453,11 @@
       <c r="D90" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39.18</v>
       </c>
@@ -2215,8 +2470,11 @@
       <c r="D91" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39.19</v>
       </c>
@@ -2229,8 +2487,11 @@
       <c r="D92" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -2243,8 +2504,11 @@
       <c r="D93" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39.21</v>
       </c>
@@ -2257,8 +2521,11 @@
       <c r="D94" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39.22</v>
       </c>
@@ -2271,8 +2538,11 @@
       <c r="D95" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39.229999999999997</v>
       </c>
@@ -2285,8 +2555,11 @@
       <c r="D96" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39.24</v>
       </c>
@@ -2299,8 +2572,11 @@
       <c r="D97" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39.25</v>
       </c>
@@ -2313,8 +2589,11 @@
       <c r="D98" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39.26</v>
       </c>
@@ -2327,8 +2606,11 @@
       <c r="D99" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39.270000000000003</v>
       </c>
@@ -2341,8 +2623,11 @@
       <c r="D100" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39.28</v>
       </c>
@@ -2355,8 +2640,11 @@
       <c r="D101" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39.29</v>
       </c>
@@ -2369,8 +2657,11 @@
       <c r="D102" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -2383,8 +2674,11 @@
       <c r="D103" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39.31</v>
       </c>
@@ -2397,8 +2691,11 @@
       <c r="D104" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39.32</v>
       </c>
@@ -2411,8 +2708,11 @@
       <c r="D105" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>39.33</v>
       </c>
@@ -2425,8 +2725,11 @@
       <c r="D106" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>39.340000000000003</v>
       </c>
@@ -2439,8 +2742,11 @@
       <c r="D107" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>39.35</v>
       </c>
@@ -2453,8 +2759,11 @@
       <c r="D108" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>39.36</v>
       </c>
@@ -2467,8 +2776,11 @@
       <c r="D109" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>39.369999999999997</v>
       </c>
@@ -2481,8 +2793,11 @@
       <c r="D110" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>39.380000000000003</v>
       </c>
@@ -2495,8 +2810,11 @@
       <c r="D111" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>39.39</v>
       </c>
@@ -2509,8 +2827,11 @@
       <c r="D112" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2523,8 +2844,11 @@
       <c r="D113" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>40</v>
       </c>
@@ -2537,8 +2861,11 @@
       <c r="D114" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>40.1</v>
       </c>
@@ -2551,8 +2878,11 @@
       <c r="D115" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40.200000000000003</v>
       </c>
@@ -2565,8 +2895,11 @@
       <c r="D116" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>40.299999999999997</v>
       </c>
@@ -2579,8 +2912,11 @@
       <c r="D117" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>40.4</v>
       </c>
@@ -2593,8 +2929,11 @@
       <c r="D118" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>40.5</v>
       </c>
@@ -2607,8 +2946,11 @@
       <c r="D119" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>40.6</v>
       </c>
@@ -2621,8 +2963,11 @@
       <c r="D120" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>40.700000000000003</v>
       </c>
@@ -2635,8 +2980,11 @@
       <c r="D121" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40.799999999999997</v>
       </c>
@@ -2649,8 +2997,11 @@
       <c r="D122" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>40.9</v>
       </c>
@@ -2663,8 +3014,11 @@
       <c r="D123" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>54</v>
       </c>
@@ -2677,8 +3031,11 @@
       <c r="D124" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>40.11</v>
       </c>
@@ -2691,8 +3048,11 @@
       <c r="D125" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>40.119999999999997</v>
       </c>
@@ -2705,8 +3065,11 @@
       <c r="D126" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41</v>
       </c>
@@ -2719,8 +3082,11 @@
       <c r="D127" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42</v>
       </c>
@@ -2733,8 +3099,11 @@
       <c r="D128" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43</v>
       </c>
@@ -2747,8 +3116,11 @@
       <c r="D129" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44</v>
       </c>
@@ -2761,8 +3133,11 @@
       <c r="D130" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45</v>
       </c>
@@ -2775,8 +3150,11 @@
       <c r="D131" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>46</v>
       </c>
@@ -2789,8 +3167,11 @@
       <c r="D132" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>47</v>
       </c>
@@ -2803,8 +3184,11 @@
       <c r="D133" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>48</v>
       </c>
@@ -2817,8 +3201,11 @@
       <c r="D134" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>49</v>
       </c>
@@ -2831,8 +3218,11 @@
       <c r="D135" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>50</v>
       </c>
@@ -2845,8 +3235,11 @@
       <c r="D136" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>51</v>
       </c>
@@ -2859,8 +3252,11 @@
       <c r="D137" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>51.1</v>
       </c>
@@ -2873,8 +3269,11 @@
       <c r="D138" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>51.2</v>
       </c>
@@ -2887,8 +3286,11 @@
       <c r="D139" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>51.3</v>
       </c>
@@ -2901,8 +3303,11 @@
       <c r="D140" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>51.4</v>
       </c>
@@ -2915,8 +3320,11 @@
       <c r="D141" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>52</v>
       </c>
@@ -2929,8 +3337,11 @@
       <c r="D142" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>53</v>
       </c>
@@ -2943,8 +3354,11 @@
       <c r="D143" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>54</v>
       </c>
@@ -2957,8 +3371,11 @@
       <c r="D144" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>55</v>
       </c>
@@ -2971,8 +3388,11 @@
       <c r="D145" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>56</v>
       </c>
@@ -2985,8 +3405,11 @@
       <c r="D146" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>57</v>
       </c>
@@ -2999,8 +3422,11 @@
       <c r="D147" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>58</v>
       </c>
@@ -3013,8 +3439,11 @@
       <c r="D148" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>59</v>
       </c>
@@ -3027,8 +3456,11 @@
       <c r="D149" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>60</v>
       </c>
@@ -3041,8 +3473,11 @@
       <c r="D150" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>61</v>
       </c>
@@ -3055,8 +3490,11 @@
       <c r="D151" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>62</v>
       </c>
@@ -3069,8 +3507,11 @@
       <c r="D152" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>63</v>
       </c>
@@ -3083,8 +3524,11 @@
       <c r="D153" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>64</v>
       </c>
@@ -3097,8 +3541,11 @@
       <c r="D154" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>65</v>
       </c>
@@ -3111,8 +3558,11 @@
       <c r="D155" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>66</v>
       </c>
@@ -3125,8 +3575,11 @@
       <c r="D156" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>67</v>
       </c>
@@ -3139,8 +3592,11 @@
       <c r="D157" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>68</v>
       </c>
@@ -3152,6 +3608,9 @@
       </c>
       <c r="D158" s="2" t="s">
         <v>208</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/Parbaudes_lapu_versijas_jautajumi.xlsx
+++ b/Parbaudes_lapu_versijas_jautajumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B92364-5B68-4143-AC10-DC06AAAC8A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E1CC0C-6ECD-401C-8C1B-65FF051609B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="277">
   <si>
     <t>09.12.2019.</t>
   </si>
@@ -661,6 +661,201 @@
   </si>
   <si>
     <t>69</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
+    <t>32.14</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>32.10</t>
+  </si>
+  <si>
+    <t>32.11</t>
+  </si>
+  <si>
+    <t>32.6</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>32.9</t>
+  </si>
+  <si>
+    <t>32.12</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>34.43</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>34.8</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>34.10</t>
+  </si>
+  <si>
+    <t>34.11</t>
+  </si>
+  <si>
+    <t>34.12</t>
+  </si>
+  <si>
+    <t>34.13</t>
+  </si>
+  <si>
+    <t>34.14</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>34.16</t>
+  </si>
+  <si>
+    <t>34.17</t>
+  </si>
+  <si>
+    <t>34.18</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>34.20</t>
+  </si>
+  <si>
+    <t>34.21</t>
+  </si>
+  <si>
+    <t>34.22</t>
+  </si>
+  <si>
+    <t>34.23</t>
+  </si>
+  <si>
+    <t>34.24</t>
+  </si>
+  <si>
+    <t>34.25</t>
+  </si>
+  <si>
+    <t>34.26</t>
+  </si>
+  <si>
+    <t>34.27</t>
+  </si>
+  <si>
+    <t>34.28</t>
+  </si>
+  <si>
+    <t>34.29</t>
+  </si>
+  <si>
+    <t>34.30</t>
+  </si>
+  <si>
+    <t>34.31</t>
+  </si>
+  <si>
+    <t>34.32</t>
+  </si>
+  <si>
+    <t>34.33</t>
+  </si>
+  <si>
+    <t>34.34</t>
+  </si>
+  <si>
+    <t>34.35</t>
+  </si>
+  <si>
+    <t>34.36</t>
+  </si>
+  <si>
+    <t>34.37</t>
+  </si>
+  <si>
+    <t>34.38</t>
+  </si>
+  <si>
+    <t>34.39</t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>47.4</t>
   </si>
 </sst>
 </file>
@@ -991,17 +1186,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1083,6 +1278,9 @@
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1100,6 +1298,9 @@
       <c r="E9" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1117,6 +1318,9 @@
       <c r="E10" s="2">
         <v>8</v>
       </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1134,6 +1338,9 @@
       <c r="E11" s="2">
         <v>8.1</v>
       </c>
+      <c r="F11" s="2">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1151,6 +1358,9 @@
       <c r="E12" s="2">
         <v>8.1999999999999993</v>
       </c>
+      <c r="F12" s="2">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1168,6 +1378,9 @@
       <c r="E13" s="2">
         <v>8.3000000000000007</v>
       </c>
+      <c r="F13" s="2">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1185,6 +1398,9 @@
       <c r="E14" s="2">
         <v>9</v>
       </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1202,6 +1418,9 @@
       <c r="E15" s="2">
         <v>10</v>
       </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1219,8 +1438,11 @@
       <c r="E16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1236,8 +1458,11 @@
       <c r="E17" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1250,8 +1475,11 @@
       <c r="E18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1264,8 +1492,11 @@
       <c r="E19" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1278,8 +1509,11 @@
       <c r="E20" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1292,8 +1526,11 @@
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1306,8 +1543,11 @@
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1320,8 +1560,11 @@
       <c r="E23" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1334,8 +1577,11 @@
       <c r="E24" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1351,8 +1597,11 @@
       <c r="E25" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1368,8 +1617,11 @@
       <c r="E26" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1385,8 +1637,11 @@
       <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1402,8 +1657,11 @@
       <c r="E28" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1419,8 +1677,11 @@
       <c r="E29" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1436,8 +1697,11 @@
       <c r="E30" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1453,8 +1717,11 @@
       <c r="E31" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1470,8 +1737,11 @@
       <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -1487,8 +1757,11 @@
       <c r="E33" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -1504,8 +1777,11 @@
       <c r="E34" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1521,8 +1797,11 @@
       <c r="E35" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -1538,8 +1817,11 @@
       <c r="E36" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -1555,8 +1837,11 @@
       <c r="E37" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -1572,8 +1857,11 @@
       <c r="E38" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -1589,8 +1877,11 @@
       <c r="E39" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35.1</v>
       </c>
@@ -1606,8 +1897,11 @@
       <c r="E40" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>35.200000000000003</v>
       </c>
@@ -1623,8 +1917,11 @@
       <c r="E41" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>35.299999999999997</v>
       </c>
@@ -1640,8 +1937,11 @@
       <c r="E42" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>35.4</v>
       </c>
@@ -1657,8 +1957,11 @@
       <c r="E43" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35.5</v>
       </c>
@@ -1674,8 +1977,11 @@
       <c r="E44" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>35.6</v>
       </c>
@@ -1691,8 +1997,11 @@
       <c r="E45" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>35.700000000000003</v>
       </c>
@@ -1708,8 +2017,11 @@
       <c r="E46" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>35.799999999999997</v>
       </c>
@@ -1725,8 +2037,11 @@
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36</v>
       </c>
@@ -1742,8 +2057,11 @@
       <c r="E48" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>37</v>
       </c>
@@ -1759,8 +2077,11 @@
       <c r="E49" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>37.1</v>
       </c>
@@ -1776,8 +2097,11 @@
       <c r="E50" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>37.200000000000003</v>
       </c>
@@ -1793,8 +2117,11 @@
       <c r="E51" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>37.299999999999997</v>
       </c>
@@ -1810,8 +2137,11 @@
       <c r="E52" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>37.4</v>
       </c>
@@ -1827,8 +2157,11 @@
       <c r="E53" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>37.5</v>
       </c>
@@ -1844,8 +2177,11 @@
       <c r="E54" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>37.6</v>
       </c>
@@ -1861,8 +2197,11 @@
       <c r="E55" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>37.700000000000003</v>
       </c>
@@ -1878,8 +2217,11 @@
       <c r="E56" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>37.799999999999997</v>
       </c>
@@ -1895,8 +2237,11 @@
       <c r="E57" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>37.9</v>
       </c>
@@ -1912,8 +2257,11 @@
       <c r="E58" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -1929,8 +2277,11 @@
       <c r="E59" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>37.11</v>
       </c>
@@ -1946,8 +2297,11 @@
       <c r="E60" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>37.119999999999997</v>
       </c>
@@ -1963,8 +2317,11 @@
       <c r="E61" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>37.130000000000003</v>
       </c>
@@ -1980,8 +2337,11 @@
       <c r="E62" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>38</v>
       </c>
@@ -1997,8 +2357,11 @@
       <c r="E63" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>38.1</v>
       </c>
@@ -2014,8 +2377,11 @@
       <c r="E64" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>38.200000000000003</v>
       </c>
@@ -2031,8 +2397,11 @@
       <c r="E65" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>38.299999999999997</v>
       </c>
@@ -2048,8 +2417,11 @@
       <c r="E66" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>38.4</v>
       </c>
@@ -2065,8 +2437,11 @@
       <c r="E67" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>38.5</v>
       </c>
@@ -2082,8 +2457,11 @@
       <c r="E68" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>38.6</v>
       </c>
@@ -2099,8 +2477,11 @@
       <c r="E69" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>38.700000000000003</v>
       </c>
@@ -2116,8 +2497,11 @@
       <c r="E70" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2133,8 +2517,11 @@
       <c r="E71" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>38.9</v>
       </c>
@@ -2150,8 +2537,11 @@
       <c r="E72" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39</v>
       </c>
@@ -2167,8 +2557,11 @@
       <c r="E73" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39.1</v>
       </c>
@@ -2184,8 +2577,11 @@
       <c r="E74" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39.200000000000003</v>
       </c>
@@ -2201,8 +2597,11 @@
       <c r="E75" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39.299999999999997</v>
       </c>
@@ -2218,8 +2617,11 @@
       <c r="E76" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39.4</v>
       </c>
@@ -2235,8 +2637,11 @@
       <c r="E77" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39.5</v>
       </c>
@@ -2252,8 +2657,11 @@
       <c r="E78" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39.6</v>
       </c>
@@ -2269,8 +2677,11 @@
       <c r="E79" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39.700000000000003</v>
       </c>
@@ -2286,8 +2697,11 @@
       <c r="E80" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39.799999999999997</v>
       </c>
@@ -2303,8 +2717,11 @@
       <c r="E81" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39.9</v>
       </c>
@@ -2320,8 +2737,11 @@
       <c r="E82" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -2337,8 +2757,11 @@
       <c r="E83" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39.11</v>
       </c>
@@ -2354,8 +2777,11 @@
       <c r="E84" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39.119999999999997</v>
       </c>
@@ -2371,8 +2797,11 @@
       <c r="E85" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39.130000000000003</v>
       </c>
@@ -2388,8 +2817,11 @@
       <c r="E86" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39.14</v>
       </c>
@@ -2405,8 +2837,11 @@
       <c r="E87" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39.15</v>
       </c>
@@ -2422,8 +2857,11 @@
       <c r="E88" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39.159999999999997</v>
       </c>
@@ -2439,8 +2877,11 @@
       <c r="E89" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39.17</v>
       </c>
@@ -2456,8 +2897,11 @@
       <c r="E90" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39.18</v>
       </c>
@@ -2473,8 +2917,11 @@
       <c r="E91" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39.19</v>
       </c>
@@ -2490,8 +2937,11 @@
       <c r="E92" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -2507,8 +2957,11 @@
       <c r="E93" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39.21</v>
       </c>
@@ -2524,8 +2977,11 @@
       <c r="E94" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39.22</v>
       </c>
@@ -2541,8 +2997,11 @@
       <c r="E95" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39.229999999999997</v>
       </c>
@@ -2558,8 +3017,11 @@
       <c r="E96" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39.24</v>
       </c>
@@ -2575,8 +3037,11 @@
       <c r="E97" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39.25</v>
       </c>
@@ -2592,8 +3057,11 @@
       <c r="E98" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39.26</v>
       </c>
@@ -2609,8 +3077,11 @@
       <c r="E99" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39.270000000000003</v>
       </c>
@@ -2626,8 +3097,11 @@
       <c r="E100" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39.28</v>
       </c>
@@ -2643,8 +3117,11 @@
       <c r="E101" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39.29</v>
       </c>
@@ -2660,8 +3137,11 @@
       <c r="E102" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -2677,8 +3157,11 @@
       <c r="E103" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39.31</v>
       </c>
@@ -2694,8 +3177,11 @@
       <c r="E104" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39.32</v>
       </c>
@@ -2711,8 +3197,11 @@
       <c r="E105" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>39.33</v>
       </c>
@@ -2728,8 +3217,11 @@
       <c r="E106" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>39.340000000000003</v>
       </c>
@@ -2745,8 +3237,11 @@
       <c r="E107" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>39.35</v>
       </c>
@@ -2762,8 +3257,11 @@
       <c r="E108" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>39.36</v>
       </c>
@@ -2779,8 +3277,11 @@
       <c r="E109" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>39.369999999999997</v>
       </c>
@@ -2796,8 +3297,11 @@
       <c r="E110" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>39.380000000000003</v>
       </c>
@@ -2813,8 +3317,11 @@
       <c r="E111" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>39.39</v>
       </c>
@@ -2830,8 +3337,11 @@
       <c r="E112" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2847,8 +3357,11 @@
       <c r="E113" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>40</v>
       </c>
@@ -2864,8 +3377,11 @@
       <c r="E114" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>40.1</v>
       </c>
@@ -2881,8 +3397,11 @@
       <c r="E115" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40.200000000000003</v>
       </c>
@@ -2898,8 +3417,11 @@
       <c r="E116" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>40.299999999999997</v>
       </c>
@@ -2915,8 +3437,11 @@
       <c r="E117" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>40.4</v>
       </c>
@@ -2932,8 +3457,11 @@
       <c r="E118" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>40.5</v>
       </c>
@@ -2949,8 +3477,11 @@
       <c r="E119" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>40.6</v>
       </c>
@@ -2966,8 +3497,11 @@
       <c r="E120" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>40.700000000000003</v>
       </c>
@@ -2983,8 +3517,11 @@
       <c r="E121" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40.799999999999997</v>
       </c>
@@ -3000,8 +3537,11 @@
       <c r="E122" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>40.9</v>
       </c>
@@ -3017,8 +3557,11 @@
       <c r="E123" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>54</v>
       </c>
@@ -3034,8 +3577,11 @@
       <c r="E124" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>40.11</v>
       </c>
@@ -3051,8 +3597,11 @@
       <c r="E125" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>40.119999999999997</v>
       </c>
@@ -3068,8 +3617,11 @@
       <c r="E126" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41</v>
       </c>
@@ -3085,8 +3637,11 @@
       <c r="E127" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42</v>
       </c>
@@ -3102,8 +3657,11 @@
       <c r="E128" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43</v>
       </c>
@@ -3119,8 +3677,11 @@
       <c r="E129" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44</v>
       </c>
@@ -3136,8 +3697,11 @@
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45</v>
       </c>
@@ -3153,8 +3717,11 @@
       <c r="E131" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>46</v>
       </c>
@@ -3170,8 +3737,11 @@
       <c r="E132" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>47</v>
       </c>
@@ -3187,8 +3757,11 @@
       <c r="E133" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>48</v>
       </c>
@@ -3204,8 +3777,11 @@
       <c r="E134" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>49</v>
       </c>
@@ -3221,8 +3797,11 @@
       <c r="E135" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>50</v>
       </c>
@@ -3238,8 +3817,11 @@
       <c r="E136" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>51</v>
       </c>
@@ -3255,8 +3837,11 @@
       <c r="E137" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>51.1</v>
       </c>
@@ -3272,8 +3857,11 @@
       <c r="E138" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>51.2</v>
       </c>
@@ -3289,8 +3877,11 @@
       <c r="E139" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>51.3</v>
       </c>
@@ -3306,8 +3897,11 @@
       <c r="E140" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>51.4</v>
       </c>
@@ -3323,8 +3917,11 @@
       <c r="E141" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>52</v>
       </c>
@@ -3340,8 +3937,11 @@
       <c r="E142" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>53</v>
       </c>
@@ -3357,8 +3957,11 @@
       <c r="E143" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>54</v>
       </c>
@@ -3374,8 +3977,11 @@
       <c r="E144" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>55</v>
       </c>
@@ -3391,8 +3997,11 @@
       <c r="E145" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>56</v>
       </c>
@@ -3408,8 +4017,11 @@
       <c r="E146" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>57</v>
       </c>
@@ -3425,8 +4037,11 @@
       <c r="E147" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>58</v>
       </c>
@@ -3442,8 +4057,11 @@
       <c r="E148" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>59</v>
       </c>
@@ -3459,8 +4077,11 @@
       <c r="E149" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>60</v>
       </c>
@@ -3476,8 +4097,11 @@
       <c r="E150" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>61</v>
       </c>
@@ -3493,8 +4117,11 @@
       <c r="E151" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>62</v>
       </c>
@@ -3510,8 +4137,11 @@
       <c r="E152" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>63</v>
       </c>
@@ -3527,8 +4157,11 @@
       <c r="E153" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>64</v>
       </c>
@@ -3544,8 +4177,11 @@
       <c r="E154" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>65</v>
       </c>
@@ -3561,8 +4197,11 @@
       <c r="E155" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>66</v>
       </c>
@@ -3578,8 +4217,11 @@
       <c r="E156" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>67</v>
       </c>
@@ -3595,8 +4237,11 @@
       <c r="E157" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>68</v>
       </c>
@@ -3611,6 +4256,9 @@
       </c>
       <c r="E158" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Parbaudes_lapu_versijas_jautajumi.xlsx
+++ b/Parbaudes_lapu_versijas_jautajumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E1CC0C-6ECD-401C-8C1B-65FF051609B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28164E40-875A-4C66-A0D4-5DD361F9B035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="328">
   <si>
     <t>09.12.2019.</t>
   </si>
@@ -147,9 +147,6 @@
     <t>42.35</t>
   </si>
   <si>
-    <t>42.24</t>
-  </si>
-  <si>
     <t>42.33</t>
   </si>
   <si>
@@ -856,6 +853,162 @@
   </si>
   <si>
     <t>47.4</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>31.6</t>
+  </si>
+  <si>
+    <t>31.7</t>
+  </si>
+  <si>
+    <t>31.8</t>
+  </si>
+  <si>
+    <t>31.9</t>
+  </si>
+  <si>
+    <t>03.04.2019.-PND</t>
+  </si>
+  <si>
+    <t>33.10</t>
+  </si>
+  <si>
+    <t>33.11</t>
+  </si>
+  <si>
+    <t>33.12</t>
+  </si>
+  <si>
+    <t>33.13</t>
+  </si>
+  <si>
+    <t>33.14</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>35.25</t>
+  </si>
+  <si>
+    <t>35.14</t>
+  </si>
+  <si>
+    <t>35.15</t>
+  </si>
+  <si>
+    <t>35.16</t>
+  </si>
+  <si>
+    <t>35.17</t>
+  </si>
+  <si>
+    <t>35.18</t>
+  </si>
+  <si>
+    <t>35.19</t>
+  </si>
+  <si>
+    <t>35.20</t>
+  </si>
+  <si>
+    <t>35.21</t>
+  </si>
+  <si>
+    <t>35.23</t>
+  </si>
+  <si>
+    <t>35.37</t>
+  </si>
+  <si>
+    <t>35.36</t>
+  </si>
+  <si>
+    <t>35.26</t>
+  </si>
+  <si>
+    <t>35.27</t>
+  </si>
+  <si>
+    <t>35.28</t>
+  </si>
+  <si>
+    <t>35.29</t>
+  </si>
+  <si>
+    <t>35.30</t>
+  </si>
+  <si>
+    <t>35.31</t>
+  </si>
+  <si>
+    <t>35.32</t>
+  </si>
+  <si>
+    <t>35.33</t>
+  </si>
+  <si>
+    <t>35.34</t>
+  </si>
+  <si>
+    <t>35.35</t>
+  </si>
+  <si>
+    <t>42.34</t>
+  </si>
+  <si>
+    <t>35.38</t>
+  </si>
+  <si>
+    <t>35.41</t>
+  </si>
+  <si>
+    <t>35.42</t>
+  </si>
+  <si>
+    <t>35.43</t>
+  </si>
+  <si>
+    <t>35.45</t>
+  </si>
+  <si>
+    <t>35.46</t>
+  </si>
+  <si>
+    <t>35.47</t>
+  </si>
+  <si>
+    <t>36.10</t>
+  </si>
+  <si>
+    <t>36.11</t>
+  </si>
+  <si>
+    <t>36.12</t>
+  </si>
+  <si>
+    <t>37.4.1</t>
   </si>
 </sst>
 </file>
@@ -1184,93 +1337,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+      <c r="C8" s="2">
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1281,8 +1450,11 @@
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1290,19 +1462,22 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1310,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
@@ -1321,8 +1496,11 @@
       <c r="F10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9.1</v>
       </c>
@@ -1330,7 +1508,7 @@
         <v>10.1</v>
       </c>
       <c r="C11" s="2">
-        <v>8.1</v>
+        <v>10.1</v>
       </c>
       <c r="D11" s="2">
         <v>8.1</v>
@@ -1341,8 +1519,11 @@
       <c r="F11" s="2">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9.1999999999999993</v>
       </c>
@@ -1350,7 +1531,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>8.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D12" s="2">
         <v>8.1999999999999993</v>
@@ -1361,8 +1542,11 @@
       <c r="F12" s="2">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9.3000000000000007</v>
       </c>
@@ -1370,7 +1554,7 @@
         <v>10.3</v>
       </c>
       <c r="C13" s="2">
-        <v>8.3000000000000007</v>
+        <v>10.3</v>
       </c>
       <c r="D13" s="2">
         <v>8.3000000000000007</v>
@@ -1381,8 +1565,11 @@
       <c r="F13" s="2">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1390,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>9</v>
@@ -1401,8 +1588,11 @@
       <c r="F14" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1410,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
@@ -1421,8 +1611,11 @@
       <c r="F15" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1430,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
         <v>11</v>
@@ -1441,16 +1634,19 @@
       <c r="F16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
-        <v>12</v>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="2">
         <v>12</v>
@@ -1461,14 +1657,14 @@
       <c r="F17" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="2">
-        <v>13</v>
-      </c>
       <c r="D18" s="2">
         <v>13</v>
       </c>
@@ -1478,65 +1674,65 @@
       <c r="F18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1546,382 +1742,436 @@
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>99</v>
+      <c r="C25" s="2">
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>100</v>
+      <c r="C26" s="2">
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>101</v>
+      <c r="C27" s="2">
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>102</v>
+      <c r="C28" s="2">
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>103</v>
+      <c r="C29" s="2">
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>104</v>
+      <c r="C30" s="2">
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>105</v>
+      <c r="C31" s="2">
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>106</v>
+      <c r="C32" s="2">
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35.1</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" s="2">
         <v>38.1</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>35.299999999999997</v>
       </c>
@@ -1929,379 +2179,436 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>35.4</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" s="2">
         <v>38.5</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35.5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>35.6</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="2">
         <v>38.700000000000003</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>35.700000000000003</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>35.799999999999997</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="2">
         <v>38.9</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="2">
         <v>39</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>37</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2">
         <v>40</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>37.1</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2">
         <v>40.1</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="2">
         <v>40.200000000000003</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="2">
         <v>40.299999999999997</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>37.4</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="2">
         <v>40.4</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>37.5</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="2">
         <v>40.5</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>37.6</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="2">
         <v>40.6</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="2">
         <v>40.700000000000003</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>37.799999999999997</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>288</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>37.9</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="2">
         <v>40.11</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="2">
         <v>40.119999999999997</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>37.11</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="2">
         <v>40.130000000000003</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>37.119999999999997</v>
       </c>
@@ -2309,159 +2616,183 @@
         <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>37.130000000000003</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="2">
         <v>40.14</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>38</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="2">
         <v>41</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>38.1</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="2">
         <v>41.1</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="2">
         <v>41.2</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="2">
         <v>41.3</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>38.4</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="2">
         <v>41.4</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>38.5</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="2">
         <v>41.5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>38.6</v>
       </c>
@@ -2469,287 +2800,329 @@
         <v>6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>38.700000000000003</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="2">
         <v>41.8</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>38.799999999999997</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>38.9</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="2">
         <v>41.11</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39.1</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39.200000000000003</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39.299999999999997</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39.4</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39.5</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39.6</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39.700000000000003</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39.799999999999997</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39.9</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -2758,590 +3131,680 @@
         <v>7</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39.11</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39.119999999999997</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39.130000000000003</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39.14</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39.15</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39.159999999999997</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39.17</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39.18</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39.19</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39.21</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39.22</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39.229999999999997</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D96" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39.24</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39.25</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39.26</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39.270000000000003</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39.28</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39.29</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D103" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39.31</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39.32</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>39.33</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>39.340000000000003</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>318</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>39.35</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>39.36</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>39.369999999999997</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>39.380000000000003</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>322</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>39.39</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>323</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -3349,299 +3812,344 @@
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>40</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>40.1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40.200000000000003</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>40.299999999999997</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>40.4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>40.5</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>40.6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>40.700000000000003</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>40.9</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>40.11</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>40.119999999999997</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42</v>
       </c>
@@ -3649,19 +4157,22 @@
         <v>6</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43</v>
       </c>
@@ -3669,27 +4180,30 @@
         <v>6</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>12</v>
@@ -3698,90 +4212,105 @@
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>46</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>47</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>48</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>49</v>
       </c>
@@ -3789,59 +4318,68 @@
         <v>6</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>50</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>51</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>51.1</v>
       </c>
@@ -3849,19 +4387,22 @@
         <v>6</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>51.2</v>
       </c>
@@ -3869,19 +4410,22 @@
         <v>6</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>51.3</v>
       </c>
@@ -3889,376 +4433,433 @@
         <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>51.4</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>52</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>53</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>54</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>56</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>57</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>58</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>59</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>60</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>61</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>62</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>63</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>64</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>65</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>66</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>67</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>68</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>275</v>
+        <v>210</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
